--- a/2020/4/TI/lab2/1.2.xlsx
+++ b/2020/4/TI/lab2/1.2.xlsx
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,12 +96,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -406,323 +422,1168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0.95</v>
-      </c>
-      <c r="C2">
-        <v>0.09</v>
-      </c>
-      <c r="E2">
-        <f>B5*B2</f>
-        <v>0.19949999999999998</v>
-      </c>
-      <c r="F2">
-        <f>B5*B3</f>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="G2">
-        <f>SUM(E2:F2)</f>
-        <v>0.21</v>
-      </c>
-      <c r="H2">
-        <f>SUM(G2:G3)</f>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <f>B7*B2</f>
+        <v>0.17490000000000003</v>
+      </c>
+      <c r="I2" s="1">
+        <f>B7*B3</f>
+        <v>5.2800000000000007E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <f>B7*B4</f>
+        <v>2.6400000000000003E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <f>B7*B5</f>
+        <v>7.5900000000000009E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUM(H2:K2)</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(L2:L5)</f>
         <v>1</v>
       </c>
-      <c r="J2">
-        <f>E2/E$4</f>
-        <v>0.7372505543237251</v>
-      </c>
-      <c r="K2">
-        <f>E3/E$4</f>
-        <v>0.26274944567627501</v>
-      </c>
-      <c r="L2">
-        <f>SUM(J2:K2)</f>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1">
+        <f>H2/H$6</f>
+        <v>0.69157769869513652</v>
+      </c>
+      <c r="P2" s="1">
+        <f>H3/H$6</f>
+        <v>0.25464610517991304</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>H4/H$6</f>
+        <v>4.9822064056939494E-2</v>
+      </c>
+      <c r="R2" s="1">
+        <f>H5/H$6</f>
+        <v>3.9541320680110716E-3</v>
+      </c>
+      <c r="S2" s="1">
+        <f>SUM(O2:R2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <v>0.91</v>
-      </c>
-      <c r="E3">
-        <f>C5*C2</f>
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="F3">
-        <f>C5*C3</f>
-        <v>0.71890000000000009</v>
-      </c>
-      <c r="G3">
-        <f>SUM(E3:F3)</f>
-        <v>0.79</v>
-      </c>
-      <c r="J3">
-        <f>F2/F4</f>
-        <v>1.4395393474088292E-2</v>
-      </c>
-      <c r="K3">
-        <f>F3/F4</f>
-        <v>0.98560460652591175</v>
-      </c>
-      <c r="L3">
-        <f>SUM(J3:K3)</f>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <f>C7*C2</f>
+        <v>6.4400000000000013E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <f>C7*C3</f>
+        <v>0.14950000000000002</v>
+      </c>
+      <c r="J3" s="1">
+        <f>C7*C4</f>
+        <v>1.38E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f>C7*C5</f>
+        <v>2.3E-3</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L5" si="0">SUM(H3:K3)</f>
+        <v>0.23000000000000004</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
+        <f>I2/I6</f>
+        <v>0.23188405797101447</v>
+      </c>
+      <c r="P3" s="1">
+        <f>I3/I6</f>
+        <v>0.65656565656565657</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>I4/I6</f>
+        <v>0.11067193675889325</v>
+      </c>
+      <c r="R3" s="1">
+        <f>I5/I6</f>
+        <v>8.7834870443566089E-4</v>
+      </c>
+      <c r="S3" s="1">
+        <f>SUM(O3:R3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <f>D7*D2</f>
+        <v>1.2599999999999998E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f>D7*D3</f>
+        <v>2.5199999999999997E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <f>D7*D4</f>
+        <v>0.3654</v>
+      </c>
+      <c r="K4" s="1">
+        <f>D7*D5</f>
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
+        <f>J2/J6</f>
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f>J3/J6</f>
+        <v>3.369140625E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>J4/J6</f>
+        <v>0.89208984375</v>
+      </c>
+      <c r="R4" s="1">
+        <f>J5/J6</f>
+        <v>9.765625E-3</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S3:S5" si="1">SUM(O4:R4)</f>
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>E7*E2</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <f>E7*E3</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J5" s="1">
+        <f>E7*E4</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K5" s="1">
+        <f>E7*E5</f>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1">
+        <f>K2/K6</f>
+        <v>0.69125683060109289</v>
+      </c>
+      <c r="P5" s="1">
+        <f>K3/K6</f>
+        <v>2.0947176684881601E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>K4/K6</f>
+        <v>0.15300546448087429</v>
+      </c>
+      <c r="R5" s="1">
+        <f>K5/K6</f>
+        <v>0.13479052823315119</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
-        <f>SUM(E2:E3)</f>
-        <v>0.27059999999999995</v>
-      </c>
-      <c r="F4">
-        <f>SUM(F2:F3)</f>
-        <v>0.72940000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>0.21</v>
-      </c>
-      <c r="C5">
-        <v>0.79</v>
-      </c>
-      <c r="E5">
-        <f>SUM(E4:F4)</f>
+      <c r="H6" s="1">
+        <f>SUM(H2:H5)</f>
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <f>SUM(I2:I5)</f>
+        <v>0.22770000000000004</v>
+      </c>
+      <c r="J6" s="1">
+        <f>SUM(J2:J5)</f>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="K6" s="1">
+        <f>SUM(K2:K5)</f>
+        <v>0.10980000000000001</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <f>SUM(H6:K6)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f>LOG(E4,2)</f>
-        <v>-1.8857662555729127</v>
-      </c>
-      <c r="C7">
-        <f>LOG(F4,2)</f>
-        <v>-0.45521789521333694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>E4*B7</f>
-        <v>-0.51028834875803009</v>
-      </c>
-      <c r="C8">
-        <f>F4*C7</f>
-        <v>-0.33203593276860799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <f>LOG(H6,2)</f>
+        <v>-1.9833610578862109</v>
+      </c>
+      <c r="C9" s="1">
+        <f>LOG(I6,2)</f>
+        <v>-2.1347938034128267</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:E9" si="2">LOG(J6,2)</f>
+        <v>-1.2877123795494494</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.1870500405442508</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <f>H6*B9</f>
+        <v>-0.50159201153942279</v>
+      </c>
+      <c r="C10" s="1">
+        <f>I6*C9</f>
+        <v>-0.4860925490371007</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:E10" si="3">J6*D9</f>
+        <v>-0.52744699066345446</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.34993809445175877</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f>-SUM(B8:C8)</f>
-        <v>0.84232428152663807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>LOG(B5,2)</f>
-        <v>-2.2515387669959646</v>
-      </c>
-      <c r="C10">
-        <f>LOG(C5,2)</f>
-        <v>-0.34007544159762171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>B5*B10</f>
-        <v>-0.47282314106915252</v>
-      </c>
-      <c r="C11">
-        <f>C5*C10</f>
-        <v>-0.26865959886212115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="1">
+        <f>-SUM(B10:E10)</f>
+        <v>1.8650696456917366</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <f>LOG(B7,2)</f>
+        <v>-1.5994620704162712</v>
+      </c>
+      <c r="C12" s="1">
+        <f>LOG(C7,2)</f>
+        <v>-2.1202942337177118</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12:E12" si="4">LOG(D7,2)</f>
+        <v>-1.2515387669959643</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.6438561897747244</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <f>B7*B12</f>
+        <v>-0.52782248323736947</v>
+      </c>
+      <c r="C13" s="1">
+        <f>C7*C12</f>
+        <v>-0.48766767375507375</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:E13" si="5">D7*D12</f>
+        <v>-0.525646282138305</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.11287712379549449</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <f>-SUM(B11:C11)</f>
-        <v>0.74148273993127367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="1">
+        <f>-SUM(B13:E13)</f>
+        <v>1.6540135629262427</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
         <f>LOG(B2,2)</f>
-        <v>-7.4000581443776928E-2</v>
-      </c>
-      <c r="C15">
+        <v>-0.91593573521152549</v>
+      </c>
+      <c r="C17" s="1">
         <f>LOG(C2,2)</f>
-        <v>-3.4739311883324127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16">
+        <v>-1.8365012677171204</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:E17" si="6">LOG(D2,2)</f>
+        <v>-5.0588936890535692</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="6"/>
+        <v>-4.3219280948873626</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
         <f>LOG(B3,2)</f>
-        <v>-4.3219280948873626</v>
-      </c>
-      <c r="C16">
+        <v>-2.6438561897747248</v>
+      </c>
+      <c r="C18" s="1">
         <f>LOG(C3,2)</f>
-        <v>-0.13606154957602837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+        <v>-0.62148837674627011</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18:E18" si="7">LOG(D3,2)</f>
+        <v>-4.0588936890535683</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="7"/>
+        <v>-6.6438561897747244</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>E2*B15</f>
-        <v>-1.4763115998033496E-2</v>
-      </c>
-      <c r="C18">
-        <f>F2*C15</f>
-        <v>-3.6476277477490333E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f>E3*B16</f>
-        <v>-0.30728908754649148</v>
-      </c>
-      <c r="C19">
-        <f>F3*C16</f>
-        <v>-9.781464799020681E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <f>H2*B17</f>
+        <v>-0.16019716008849583</v>
+      </c>
+      <c r="C20" s="1">
+        <f>I2*C17</f>
+        <v>-9.6967266935463967E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:E20" si="8">J2*D17</f>
+        <v>-0.13355479339101425</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.32803434240195084</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <f>H3*B18</f>
+        <v>-0.17026433862149232</v>
+      </c>
+      <c r="C21" s="1">
+        <f>I3*C18</f>
+        <v>-9.2912512323567398E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:E21" si="9">J3*D18</f>
+        <v>-5.6012732908939239E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="9"/>
+        <v>-1.5280869236481866E-2</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20">
-        <f>-SUM(B18:C19)</f>
-        <v>0.45634312901222207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="1">
+        <f>-SUM(B20:E21)</f>
+        <v>1.0532240159074058</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f>LOG(J2,2)</f>
-        <v>-0.43977309286682892</v>
-      </c>
-      <c r="C23">
-        <f>LOG(K2,2)</f>
-        <v>-1.9282403743571217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f>LOG(J3,2)</f>
-        <v>-6.1182489666699897</v>
-      </c>
-      <c r="C24">
-        <f>LOG(K3,2)</f>
-        <v>-2.0919095960313081E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
+        <f>LOG(O2,2)</f>
+        <v>-0.53203674774158571</v>
+      </c>
+      <c r="C25" s="1">
+        <f>LOG(P2,2)</f>
+        <v>-1.9734344435486215</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:E25" si="10">LOG(Q2,2)</f>
+        <v>-4.3270713981633229</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="10"/>
+        <v>-7.9824232267758761</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
+        <f>LOG(O3,2)</f>
+        <v>-2.1085244567781696</v>
+      </c>
+      <c r="C26" s="1">
+        <f>LOG(P3,2)</f>
+        <v>-0.6069888070511551</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:E26" si="11">LOG(Q3,2)</f>
+        <v>-3.1756386526367066</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="11"/>
+        <v>-10.152918576136623</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f>E2*B23</f>
-        <v>-8.7734732026932355E-2</v>
-      </c>
-      <c r="C26">
-        <f>F2*C23</f>
-        <v>-2.0246523930749778E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>E3*B24</f>
-        <v>-0.43500750153023626</v>
-      </c>
-      <c r="C27">
-        <f>F3*C24</f>
-        <v>-1.5038738085869077E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
+        <f>H2*B25</f>
+        <v>-9.3053227180003362E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <f>I2*C25</f>
+        <v>-0.10419733861936722</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28:E28" si="12">J2*D25</f>
+        <v>-0.11423468491151174</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.60586592291228902</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
+        <f>H3*B26</f>
+        <v>-0.13578897501651416</v>
+      </c>
+      <c r="C29" s="1">
+        <f>I3*C26</f>
+        <v>-9.0744826654147695E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ref="D29:E29" si="13">J3*D26</f>
+        <v>-4.3823813406386553E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.3351712725114233E-2</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B28">
-        <f>-SUM(B26:C27)</f>
-        <v>0.5580274955737875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" s="1">
+        <f>-SUM(B28:E29)</f>
+        <v>1.2110605014253342</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29">
-        <f>B9+B28</f>
-        <v>1.4003517771004255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31" s="1">
+        <f>B11+B30</f>
+        <v>3.0761301471170706</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30">
-        <f>B9+B12-B29</f>
-        <v>0.18345524435748617</v>
-      </c>
+      <c r="B32" s="1">
+        <f>B11+B14-B31</f>
+        <v>0.44295306150090852</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
